--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value4003.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value4003.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.394999005311841</v>
+        <v>2.727054357528687</v>
       </c>
       <c r="B1">
-        <v>2.493268771153708</v>
+        <v>4.954568862915039</v>
       </c>
       <c r="C1">
-        <v>3.272743101182301</v>
+        <v>4.684307098388672</v>
       </c>
       <c r="D1">
-        <v>3.752447792774835</v>
+        <v>7.788054466247559</v>
       </c>
       <c r="E1">
-        <v>2.025697850897445</v>
+        <v>5.472336769104004</v>
       </c>
     </row>
   </sheetData>
